--- a/Relat/TODO.xlsx
+++ b/Relat/TODO.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="18">
   <si>
     <t>Categorie</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>Grammaires</t>
+  </si>
+  <si>
+    <t>Grammaire</t>
+  </si>
+  <si>
+    <t>SOCKET</t>
+  </si>
+  <si>
+    <t>Serveur</t>
   </si>
 </sst>
 </file>
@@ -84,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +139,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -158,6 +179,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -535,7 +558,7 @@
         <v>11</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G16" si="0">D3-F3</f>
+        <f t="shared" ref="G3:G7" si="0">D3-F3</f>
         <v>9</v>
       </c>
     </row>
@@ -639,6 +662,9 @@
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
       <c r="C8" s="1" t="s">
         <v>12</v>
       </c>
@@ -646,13 +672,13 @@
         <v>30</v>
       </c>
       <c r="E8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f>D8-F8</f>
         <v>30</v>
       </c>
     </row>
@@ -660,6 +686,9 @@
       <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
       <c r="C9" s="1" t="s">
         <v>11</v>
       </c>
@@ -667,13 +696,13 @@
         <v>10</v>
       </c>
       <c r="E9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f>D9-F9</f>
         <v>10</v>
       </c>
     </row>
@@ -681,6 +710,9 @@
       <c r="A10" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
@@ -688,13 +720,13 @@
         <v>30</v>
       </c>
       <c r="E10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
+        <f>D10-F10</f>
         <v>30</v>
       </c>
     </row>
@@ -702,6 +734,9 @@
       <c r="A11" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="1" t="s">
         <v>11</v>
       </c>
@@ -709,13 +744,13 @@
         <v>10</v>
       </c>
       <c r="E11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
+        <f>D11-F11</f>
         <v>10</v>
       </c>
     </row>
@@ -723,6 +758,9 @@
       <c r="A12" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
       <c r="C12" s="1" t="s">
         <v>12</v>
       </c>
@@ -730,13 +768,13 @@
         <v>30</v>
       </c>
       <c r="E12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
+        <f>D12-F12</f>
         <v>30</v>
       </c>
     </row>
@@ -744,6 +782,9 @@
       <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
       <c r="C13" s="1" t="s">
         <v>11</v>
       </c>
@@ -751,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="E13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
+        <f>D13-F13</f>
         <v>10</v>
       </c>
     </row>
@@ -765,6 +806,9 @@
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
@@ -772,13 +816,13 @@
         <v>30</v>
       </c>
       <c r="E14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f>D14-F14</f>
         <v>30</v>
       </c>
     </row>
@@ -786,6 +830,9 @@
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -793,13 +840,13 @@
         <v>10</v>
       </c>
       <c r="E15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
+        <f>D15-F15</f>
         <v>10</v>
       </c>
     </row>
@@ -807,6 +854,9 @@
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
       <c r="C16" s="7" t="s">
         <v>12</v>
       </c>
@@ -814,14 +864,86 @@
         <v>30</v>
       </c>
       <c r="E16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>30</v>
+        <f>D16-F16</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f>D17-F17</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>30</v>
+      </c>
+      <c r="G18">
+        <f>D18-F18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19">
+        <v>10</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <f>D19-F19</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
